--- a/ROD-MANIPULATOR/Project Outputs for RodManipulator_PRJ/BOM/Bill of Materials-BOM.xlsx
+++ b/ROD-MANIPULATOR/Project Outputs for RodManipulator_PRJ/BOM/Bill of Materials-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAV-CAN-MODULES\ROD-MANIPULATOR\Project Outputs for RodManipulator_PRJ\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\ROD-MANIPULATOR\Project Outputs for RodManipulator_PRJ\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03F4665-5A11-43FB-86C2-2D3990229D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33433206-35D1-4F09-BE6A-CC0CD80466CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{F1CD28E4-0A85-4ED7-949B-64C9A43A7192}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{05776390-B315-4E91-951E-E7F3357E41A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-BOM'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,7 +443,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -499,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,9 +514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +554,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8A6A7-E8EF-4E46-9C63-33DEE25480DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679482A-1BB7-49A5-B577-51CF7B7BB63E}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1733,6 +1732,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ROD-MANIPULATOR/Project Outputs for RodManipulator_PRJ/BOM/Bill of Materials-BOM.xlsx
+++ b/ROD-MANIPULATOR/Project Outputs for RodManipulator_PRJ/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\ROD-MANIPULATOR\Project Outputs for RodManipulator_PRJ\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33433206-35D1-4F09-BE6A-CC0CD80466CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{031AF59F-0B7D-40C6-BC10-5E7B296E6681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{05776390-B315-4E91-951E-E7F3357E41A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{9787EA68-82FE-4F12-A01E-AF6352405050}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679482A-1BB7-49A5-B577-51CF7B7BB63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192D1E35-4381-493F-81A5-2BBF9E76E15C}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
